--- a/Code/Results/Cases/Case_2_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.045318014215383</v>
+        <v>1.073035276108662</v>
       </c>
       <c r="D2">
-        <v>1.058926010713149</v>
+        <v>1.07616131307801</v>
       </c>
       <c r="E2">
-        <v>1.047069230753009</v>
+        <v>1.074059216939659</v>
       </c>
       <c r="F2">
-        <v>1.062580005689016</v>
+        <v>1.086184276494918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064488719297489</v>
+        <v>1.058092633451352</v>
       </c>
       <c r="J2">
-        <v>1.066222885647689</v>
+        <v>1.077951812766228</v>
       </c>
       <c r="K2">
-        <v>1.069621202861941</v>
+        <v>1.078845974784472</v>
       </c>
       <c r="L2">
-        <v>1.057909567632235</v>
+        <v>1.0767494323679</v>
       </c>
       <c r="M2">
-        <v>1.073231277524483</v>
+        <v>1.088842776693001</v>
       </c>
       <c r="N2">
-        <v>1.067737044442783</v>
+        <v>1.079482627983157</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.051261129308427</v>
+        <v>1.074254730500714</v>
       </c>
       <c r="D3">
-        <v>1.063647874903229</v>
+        <v>1.07714950861477</v>
       </c>
       <c r="E3">
-        <v>1.051985315199585</v>
+        <v>1.075143636495122</v>
       </c>
       <c r="F3">
-        <v>1.06770605808519</v>
+        <v>1.08729335775987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066722123120218</v>
+        <v>1.058486924508238</v>
       </c>
       <c r="J3">
-        <v>1.07044562884196</v>
+        <v>1.078828530708353</v>
       </c>
       <c r="K3">
-        <v>1.073526333038582</v>
+        <v>1.079651204156306</v>
       </c>
       <c r="L3">
-        <v>1.06199358890943</v>
+        <v>1.077650248025135</v>
       </c>
       <c r="M3">
-        <v>1.077540161094443</v>
+        <v>1.089770491273244</v>
       </c>
       <c r="N3">
-        <v>1.071965784416745</v>
+        <v>1.080360590965321</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.05501443246139</v>
+        <v>1.075043614630836</v>
       </c>
       <c r="D4">
-        <v>1.066633100146166</v>
+        <v>1.077788782794776</v>
       </c>
       <c r="E4">
-        <v>1.055100573712171</v>
+        <v>1.075845869750061</v>
       </c>
       <c r="F4">
-        <v>1.070951031859183</v>
+        <v>1.088011310223659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06812343758359</v>
+        <v>1.058740790226224</v>
       </c>
       <c r="J4">
-        <v>1.073108383573528</v>
+        <v>1.079395072605341</v>
       </c>
       <c r="K4">
-        <v>1.075988715937922</v>
+        <v>1.080171467164715</v>
       </c>
       <c r="L4">
-        <v>1.064576533067049</v>
+        <v>1.078233075864264</v>
       </c>
       <c r="M4">
-        <v>1.080262402143686</v>
+        <v>1.090370488672984</v>
       </c>
       <c r="N4">
-        <v>1.074632320565454</v>
+        <v>1.080927937416786</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.056571194031527</v>
+        <v>1.075375219021572</v>
       </c>
       <c r="D5">
-        <v>1.067871985568816</v>
+        <v>1.078057497332646</v>
       </c>
       <c r="E5">
-        <v>1.056395145160526</v>
+        <v>1.076141218618232</v>
       </c>
       <c r="F5">
-        <v>1.072298723835317</v>
+        <v>1.088313210547838</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068702419703746</v>
+        <v>1.058847212467398</v>
       </c>
       <c r="J5">
-        <v>1.074211797579567</v>
+        <v>1.079633067400878</v>
       </c>
       <c r="K5">
-        <v>1.077009063574414</v>
+        <v>1.080390001082363</v>
       </c>
       <c r="L5">
-        <v>1.065648687742932</v>
+        <v>1.078478082733782</v>
       </c>
       <c r="M5">
-        <v>1.081391689694676</v>
+        <v>1.090622657349216</v>
       </c>
       <c r="N5">
-        <v>1.075737301545945</v>
+        <v>1.08116627019223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05683136924567</v>
+        <v>1.075430894413834</v>
       </c>
       <c r="D6">
-        <v>1.06807907479528</v>
+        <v>1.078102613574284</v>
       </c>
       <c r="E6">
-        <v>1.056611643487165</v>
+        <v>1.076190816628812</v>
       </c>
       <c r="F6">
-        <v>1.072524060214986</v>
+        <v>1.088363905246319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068799049531847</v>
+        <v>1.058865063479225</v>
       </c>
       <c r="J6">
-        <v>1.07439614548236</v>
+        <v>1.079673017279554</v>
       </c>
       <c r="K6">
-        <v>1.077179531153281</v>
+        <v>1.080426683081174</v>
       </c>
       <c r="L6">
-        <v>1.065827919052968</v>
+        <v>1.078519219659813</v>
       </c>
       <c r="M6">
-        <v>1.081580431760102</v>
+        <v>1.090664993479383</v>
       </c>
       <c r="N6">
-        <v>1.075921911243905</v>
+        <v>1.081206276804317</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.055035315765339</v>
+        <v>1.075048045709847</v>
       </c>
       <c r="D7">
-        <v>1.066649716589182</v>
+        <v>1.077792373513522</v>
       </c>
       <c r="E7">
-        <v>1.055117930256093</v>
+        <v>1.07584981570472</v>
       </c>
       <c r="F7">
-        <v>1.070969103673086</v>
+        <v>1.088015343942501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068131213308031</v>
+        <v>1.058742213435124</v>
       </c>
       <c r="J7">
-        <v>1.073123189496923</v>
+        <v>1.079398253407297</v>
       </c>
       <c r="K7">
-        <v>1.076002407406045</v>
+        <v>1.080174387950289</v>
       </c>
       <c r="L7">
-        <v>1.064590912405115</v>
+        <v>1.078236349712323</v>
       </c>
       <c r="M7">
-        <v>1.080277550429781</v>
+        <v>1.090373858438352</v>
       </c>
       <c r="N7">
-        <v>1.074647147514959</v>
+        <v>1.080931122735846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.047346229076505</v>
+        <v>1.073447435604095</v>
       </c>
       <c r="D8">
-        <v>1.060536736641675</v>
+        <v>1.076495310743158</v>
       </c>
       <c r="E8">
-        <v>1.048744676550809</v>
+        <v>1.074425589782329</v>
       </c>
       <c r="F8">
-        <v>1.064327721666384</v>
+        <v>1.0865590334032</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065252815519232</v>
+        <v>1.058226148537247</v>
       </c>
       <c r="J8">
-        <v>1.067664814827044</v>
+        <v>1.078248260208713</v>
       </c>
       <c r="K8">
-        <v>1.070954689410933</v>
+        <v>1.079118266555583</v>
       </c>
       <c r="L8">
-        <v>1.059302498517012</v>
+        <v>1.077053879951826</v>
       </c>
       <c r="M8">
-        <v>1.074701522287705</v>
+        <v>1.08915636383729</v>
       </c>
       <c r="N8">
-        <v>1.069181021326965</v>
+        <v>1.079779496415014</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033043396367314</v>
+        <v>1.070625469767532</v>
       </c>
       <c r="D9">
-        <v>1.049194504446623</v>
+        <v>1.074208508756972</v>
       </c>
       <c r="E9">
-        <v>1.036978405685665</v>
+        <v>1.071920048001175</v>
       </c>
       <c r="F9">
-        <v>1.052038951602582</v>
+        <v>1.083995117743192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05982715998047</v>
+        <v>1.057307054468826</v>
       </c>
       <c r="J9">
-        <v>1.057480940068076</v>
+        <v>1.076216015406083</v>
       </c>
       <c r="K9">
-        <v>1.061536852278207</v>
+        <v>1.077251284145195</v>
       </c>
       <c r="L9">
-        <v>1.049498728516863</v>
+        <v>1.074969736525737</v>
       </c>
       <c r="M9">
-        <v>1.064340609716476</v>
+        <v>1.087008687670265</v>
       </c>
       <c r="N9">
-        <v>1.058982684297732</v>
+        <v>1.077744365591662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.022930132563534</v>
+        <v>1.068743054100053</v>
       </c>
       <c r="D10">
-        <v>1.041199121114778</v>
+        <v>1.072683116125223</v>
       </c>
       <c r="E10">
-        <v>1.028725526538</v>
+        <v>1.070252431141156</v>
       </c>
       <c r="F10">
-        <v>1.043399593284803</v>
+        <v>1.08228733674406</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055945406221169</v>
+        <v>1.056687761691079</v>
       </c>
       <c r="J10">
-        <v>1.050262621454908</v>
+        <v>1.074857219799007</v>
       </c>
       <c r="K10">
-        <v>1.054862329243814</v>
+        <v>1.07600257424424</v>
       </c>
       <c r="L10">
-        <v>1.042594804459512</v>
+        <v>1.073579953793238</v>
       </c>
       <c r="M10">
-        <v>1.057027104934129</v>
+        <v>1.085575318288789</v>
       </c>
       <c r="N10">
-        <v>1.051754114844181</v>
+        <v>1.076383640338968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.018396042610169</v>
+        <v>1.067927660941552</v>
       </c>
       <c r="D11">
-        <v>1.037621568361943</v>
+        <v>1.072022390287662</v>
       </c>
       <c r="E11">
-        <v>1.025042967979037</v>
+        <v>1.06953097799046</v>
       </c>
       <c r="F11">
-        <v>1.039539493805613</v>
+        <v>1.081548193052232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054195075297638</v>
+        <v>1.056418037881187</v>
       </c>
       <c r="J11">
-        <v>1.047023056036256</v>
+        <v>1.074267891720237</v>
       </c>
       <c r="K11">
-        <v>1.051867239882556</v>
+        <v>1.075460896176905</v>
       </c>
       <c r="L11">
-        <v>1.039507574676417</v>
+        <v>1.072978071010695</v>
       </c>
       <c r="M11">
-        <v>1.053752384387915</v>
+        <v>1.084954267343709</v>
       </c>
       <c r="N11">
-        <v>1.048509948871051</v>
+        <v>1.075793475346729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.016686907917802</v>
+        <v>1.067624741143218</v>
       </c>
       <c r="D12">
-        <v>1.036274169968763</v>
+        <v>1.071776933119697</v>
       </c>
       <c r="E12">
-        <v>1.023657592402889</v>
+        <v>1.06926309296134</v>
       </c>
       <c r="F12">
-        <v>1.038086530911305</v>
+        <v>1.081273691757606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053533847794625</v>
+        <v>1.056317614559313</v>
       </c>
       <c r="J12">
-        <v>1.045801461167224</v>
+        <v>1.074048843411197</v>
       </c>
       <c r="K12">
-        <v>1.050737917641403</v>
+        <v>1.07525954477267</v>
       </c>
       <c r="L12">
-        <v>1.038345164704138</v>
+        <v>1.072754489520604</v>
       </c>
       <c r="M12">
-        <v>1.052518704843283</v>
+        <v>1.084723521420071</v>
       </c>
       <c r="N12">
-        <v>1.047286619197187</v>
+        <v>1.075574115963966</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.017054681999385</v>
+        <v>1.067689720606482</v>
       </c>
       <c r="D13">
-        <v>1.036564050489901</v>
+        <v>1.071829586078038</v>
       </c>
       <c r="E13">
-        <v>1.023955571800553</v>
+        <v>1.069320550931911</v>
       </c>
       <c r="F13">
-        <v>1.038399084143916</v>
+        <v>1.081332570989633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053676195407264</v>
+        <v>1.056339166387245</v>
       </c>
       <c r="J13">
-        <v>1.046064344099431</v>
+        <v>1.074095836627589</v>
       </c>
       <c r="K13">
-        <v>1.050980939679372</v>
+        <v>1.075302742048951</v>
       </c>
       <c r="L13">
-        <v>1.038595231715817</v>
+        <v>1.072802449219293</v>
       </c>
       <c r="M13">
-        <v>1.052784134833858</v>
+        <v>1.084773019932531</v>
       </c>
       <c r="N13">
-        <v>1.047549875453309</v>
+        <v>1.075621175916115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.018255284749782</v>
+        <v>1.067902622457253</v>
       </c>
       <c r="D14">
-        <v>1.037510577349279</v>
+        <v>1.072002101424535</v>
       </c>
       <c r="E14">
-        <v>1.024928816495696</v>
+        <v>1.069508832600973</v>
       </c>
       <c r="F14">
-        <v>1.039419789676112</v>
+        <v>1.08152550168396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054140647861609</v>
+        <v>1.056409741673748</v>
       </c>
       <c r="J14">
-        <v>1.046922458484462</v>
+        <v>1.074249788096817</v>
       </c>
       <c r="K14">
-        <v>1.051774239089482</v>
+        <v>1.07544425543332</v>
       </c>
       <c r="L14">
-        <v>1.039411815286057</v>
+        <v>1.072959590013997</v>
       </c>
       <c r="M14">
-        <v>1.053650767663345</v>
+        <v>1.084935195042291</v>
       </c>
       <c r="N14">
-        <v>1.048409208459194</v>
+        <v>1.075775346014088</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.018991653525774</v>
+        <v>1.068033792090373</v>
       </c>
       <c r="D15">
-        <v>1.038091270344811</v>
+        <v>1.072108389264838</v>
       </c>
       <c r="E15">
-        <v>1.025526108925639</v>
+        <v>1.069624851689956</v>
       </c>
       <c r="F15">
-        <v>1.040046103421145</v>
+        <v>1.081644379192221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054425324622339</v>
+        <v>1.056453194160774</v>
       </c>
       <c r="J15">
-        <v>1.047448713088773</v>
+        <v>1.074344623343001</v>
       </c>
       <c r="K15">
-        <v>1.052260756424592</v>
+        <v>1.075531426850166</v>
       </c>
       <c r="L15">
-        <v>1.039912831287973</v>
+        <v>1.073056407577412</v>
       </c>
       <c r="M15">
-        <v>1.054182401770085</v>
+        <v>1.085035108506681</v>
       </c>
       <c r="N15">
-        <v>1.048936210405406</v>
+        <v>1.075870315937199</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.023227639451624</v>
+        <v>1.068797162661499</v>
       </c>
       <c r="D16">
-        <v>1.041434019482049</v>
+        <v>1.072726961585995</v>
       </c>
       <c r="E16">
-        <v>1.028967534795384</v>
+        <v>1.070300324945467</v>
       </c>
       <c r="F16">
-        <v>1.043653160515155</v>
+        <v>1.082336398285353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056060052688844</v>
+        <v>1.056705629326058</v>
       </c>
       <c r="J16">
-        <v>1.05047512334804</v>
+        <v>1.074896311212776</v>
       </c>
       <c r="K16">
-        <v>1.055058805006566</v>
+        <v>1.076038502929201</v>
       </c>
       <c r="L16">
-        <v>1.042797551493834</v>
+        <v>1.073619896649158</v>
       </c>
       <c r="M16">
-        <v>1.057242072857708</v>
+        <v>1.085616527040987</v>
       </c>
       <c r="N16">
-        <v>1.051966918514375</v>
+        <v>1.076422787267029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.025842126294837</v>
+        <v>1.06927592439236</v>
       </c>
       <c r="D17">
-        <v>1.043499112910067</v>
+        <v>1.073114915846272</v>
       </c>
       <c r="E17">
-        <v>1.031096297682276</v>
+        <v>1.070724201205514</v>
       </c>
       <c r="F17">
-        <v>1.045883016814413</v>
+        <v>1.082770573024155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057066435857836</v>
+        <v>1.056863555546274</v>
       </c>
       <c r="J17">
-        <v>1.052342213440098</v>
+        <v>1.07524211233695</v>
       </c>
       <c r="K17">
-        <v>1.056785136032615</v>
+        <v>1.07635631565766</v>
       </c>
       <c r="L17">
-        <v>1.044580212745845</v>
+        <v>1.073973331773677</v>
       </c>
       <c r="M17">
-        <v>1.059131691428862</v>
+        <v>1.085981129743032</v>
       </c>
       <c r="N17">
-        <v>1.053836660088522</v>
+        <v>1.076769079468463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027352281015632</v>
+        <v>1.069555149719893</v>
       </c>
       <c r="D18">
-        <v>1.044692588427747</v>
+        <v>1.073341181771594</v>
       </c>
       <c r="E18">
-        <v>1.032327533044599</v>
+        <v>1.07097150246908</v>
       </c>
       <c r="F18">
-        <v>1.047172242744982</v>
+        <v>1.083023852364814</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057646781618919</v>
+        <v>1.056955520189782</v>
       </c>
       <c r="J18">
-        <v>1.053420340678912</v>
+        <v>1.075443719685732</v>
       </c>
       <c r="K18">
-        <v>1.057782022156885</v>
+        <v>1.076541596112096</v>
       </c>
       <c r="L18">
-        <v>1.045610645037261</v>
+        <v>1.074179475128469</v>
       </c>
       <c r="M18">
-        <v>1.060223539329578</v>
+        <v>1.086193758522811</v>
       </c>
       <c r="N18">
-        <v>1.054916318391679</v>
+        <v>1.076970973122804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.027864737816229</v>
+        <v>1.069650353608021</v>
       </c>
       <c r="D19">
-        <v>1.045097691225486</v>
+        <v>1.073418329033669</v>
       </c>
       <c r="E19">
-        <v>1.032745615114181</v>
+        <v>1.071055836247937</v>
       </c>
       <c r="F19">
-        <v>1.047609935777169</v>
+        <v>1.083110219627609</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057843553111022</v>
+        <v>1.056986852154751</v>
       </c>
       <c r="J19">
-        <v>1.05378613610543</v>
+        <v>1.075512446914568</v>
       </c>
       <c r="K19">
-        <v>1.058120259386772</v>
+        <v>1.076604755989862</v>
       </c>
       <c r="L19">
-        <v>1.045960436014581</v>
+        <v>1.074249763117498</v>
       </c>
       <c r="M19">
-        <v>1.060594109765779</v>
+        <v>1.086266253058074</v>
       </c>
       <c r="N19">
-        <v>1.055282633289659</v>
+        <v>1.077039797952189</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.025563162354809</v>
+        <v>1.06922456073279</v>
       </c>
       <c r="D20">
-        <v>1.043278699976967</v>
+        <v>1.073073294229903</v>
       </c>
       <c r="E20">
-        <v>1.030868988878456</v>
+        <v>1.070678716948481</v>
       </c>
       <c r="F20">
-        <v>1.045644963300225</v>
+        <v>1.082723986823975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056959153795082</v>
+        <v>1.056846627186123</v>
       </c>
       <c r="J20">
-        <v>1.052143029294736</v>
+        <v>1.075205020736921</v>
       </c>
       <c r="K20">
-        <v>1.056600964158613</v>
+        <v>1.076322227125379</v>
       </c>
       <c r="L20">
-        <v>1.044389925444414</v>
+        <v>1.073935412505476</v>
       </c>
       <c r="M20">
-        <v>1.058930029749308</v>
+        <v>1.085942015242211</v>
       </c>
       <c r="N20">
-        <v>1.053637193078827</v>
+        <v>1.076731935194107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.017902440868885</v>
+        <v>1.067839929469147</v>
       </c>
       <c r="D21">
-        <v>1.037232370517145</v>
+        <v>1.07195130090626</v>
       </c>
       <c r="E21">
-        <v>1.024642713139244</v>
+        <v>1.069453385731502</v>
       </c>
       <c r="F21">
-        <v>1.039119756512903</v>
+        <v>1.081468687042544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054004189347699</v>
+        <v>1.05638896552762</v>
       </c>
       <c r="J21">
-        <v>1.046670279475726</v>
+        <v>1.074204457256556</v>
       </c>
       <c r="K21">
-        <v>1.051541105143262</v>
+        <v>1.075402587364163</v>
       </c>
       <c r="L21">
-        <v>1.039171792847076</v>
+        <v>1.07291331639844</v>
       </c>
       <c r="M21">
-        <v>1.053396052768595</v>
+        <v>1.084887440177337</v>
       </c>
       <c r="N21">
-        <v>1.04815667132734</v>
+        <v>1.075729950798834</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.012940405112993</v>
+        <v>1.06696908686871</v>
       </c>
       <c r="D22">
-        <v>1.033322891447306</v>
+        <v>1.071245660957096</v>
       </c>
       <c r="E22">
-        <v>1.020626065253858</v>
+        <v>1.068683519436334</v>
       </c>
       <c r="F22">
-        <v>1.034905603421211</v>
+        <v>1.080679716617019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052081841518476</v>
+        <v>1.056099850386753</v>
       </c>
       <c r="J22">
-        <v>1.043122954157982</v>
+        <v>1.073574520123231</v>
       </c>
       <c r="K22">
-        <v>1.048261909710246</v>
+        <v>1.074823516241888</v>
       </c>
       <c r="L22">
-        <v>1.035799698290948</v>
+        <v>1.072270594388104</v>
       </c>
       <c r="M22">
-        <v>1.049815900774265</v>
+        <v>1.084224039640109</v>
       </c>
       <c r="N22">
-        <v>1.044604308400761</v>
+        <v>1.075099119082524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.015585266498972</v>
+        <v>1.067430763330135</v>
       </c>
       <c r="D23">
-        <v>1.03540603346259</v>
+        <v>1.071619753170526</v>
       </c>
       <c r="E23">
-        <v>1.0227654345339</v>
+        <v>1.069091588426084</v>
       </c>
       <c r="F23">
-        <v>1.037150619248819</v>
+        <v>1.08109793796082</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053107250548093</v>
+        <v>1.056253245396104</v>
       </c>
       <c r="J23">
-        <v>1.045013956091276</v>
+        <v>1.073908542072699</v>
       </c>
       <c r="K23">
-        <v>1.050009922851894</v>
+        <v>1.0751305743956</v>
       </c>
       <c r="L23">
-        <v>1.037596311206256</v>
+        <v>1.072611322232182</v>
       </c>
       <c r="M23">
-        <v>1.051723744332202</v>
+        <v>1.08457575406658</v>
       </c>
       <c r="N23">
-        <v>1.046497995773702</v>
+        <v>1.075433615381474</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.025689259859659</v>
+        <v>1.069247769847101</v>
       </c>
       <c r="D24">
-        <v>1.043378329180885</v>
+        <v>1.073092101312503</v>
       </c>
       <c r="E24">
-        <v>1.030971732109705</v>
+        <v>1.070699269136819</v>
       </c>
       <c r="F24">
-        <v>1.045752564610039</v>
+        <v>1.082745037022114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057007650477449</v>
+        <v>1.056854276850175</v>
       </c>
       <c r="J24">
-        <v>1.052233065681348</v>
+        <v>1.075221781120583</v>
       </c>
       <c r="K24">
-        <v>1.056684214492568</v>
+        <v>1.076337630557369</v>
       </c>
       <c r="L24">
-        <v>1.044475936949797</v>
+        <v>1.073952546619672</v>
       </c>
       <c r="M24">
-        <v>1.05902118383884</v>
+        <v>1.085959689518421</v>
       </c>
       <c r="N24">
-        <v>1.053727357327435</v>
+        <v>1.076748719379436</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.036837308994881</v>
+        <v>1.071355202606751</v>
       </c>
       <c r="D25">
-        <v>1.052199273102156</v>
+        <v>1.074799849924654</v>
       </c>
       <c r="E25">
-        <v>1.04008851438816</v>
+        <v>1.072567304701992</v>
       </c>
       <c r="F25">
-        <v>1.055290505900452</v>
+        <v>1.084657684520156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061274356965164</v>
+        <v>1.057545817180882</v>
       </c>
       <c r="J25">
-        <v>1.060185513335343</v>
+        <v>1.07674209402252</v>
       </c>
       <c r="K25">
-        <v>1.064037913030884</v>
+        <v>1.077734655134437</v>
       </c>
       <c r="L25">
-        <v>1.052094823893482</v>
+        <v>1.075508597664264</v>
       </c>
       <c r="M25">
-        <v>1.067087124330236</v>
+        <v>1.08756418975865</v>
       </c>
       <c r="N25">
-        <v>1.061691098369258</v>
+        <v>1.078271191300076</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073035276108662</v>
+        <v>1.045318014215384</v>
       </c>
       <c r="D2">
-        <v>1.07616131307801</v>
+        <v>1.05892601071315</v>
       </c>
       <c r="E2">
-        <v>1.074059216939659</v>
+        <v>1.047069230753009</v>
       </c>
       <c r="F2">
-        <v>1.086184276494918</v>
+        <v>1.062580005689017</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058092633451352</v>
+        <v>1.064488719297489</v>
       </c>
       <c r="J2">
-        <v>1.077951812766228</v>
+        <v>1.06622288564769</v>
       </c>
       <c r="K2">
-        <v>1.078845974784472</v>
+        <v>1.069621202861941</v>
       </c>
       <c r="L2">
-        <v>1.0767494323679</v>
+        <v>1.057909567632236</v>
       </c>
       <c r="M2">
-        <v>1.088842776693001</v>
+        <v>1.073231277524483</v>
       </c>
       <c r="N2">
-        <v>1.079482627983157</v>
+        <v>1.067737044442784</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.074254730500714</v>
+        <v>1.051261129308427</v>
       </c>
       <c r="D3">
-        <v>1.07714950861477</v>
+        <v>1.063647874903229</v>
       </c>
       <c r="E3">
-        <v>1.075143636495122</v>
+        <v>1.051985315199585</v>
       </c>
       <c r="F3">
-        <v>1.08729335775987</v>
+        <v>1.06770605808519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058486924508238</v>
+        <v>1.066722123120219</v>
       </c>
       <c r="J3">
-        <v>1.078828530708353</v>
+        <v>1.07044562884196</v>
       </c>
       <c r="K3">
-        <v>1.079651204156306</v>
+        <v>1.073526333038582</v>
       </c>
       <c r="L3">
-        <v>1.077650248025135</v>
+        <v>1.06199358890943</v>
       </c>
       <c r="M3">
-        <v>1.089770491273244</v>
+        <v>1.077540161094443</v>
       </c>
       <c r="N3">
-        <v>1.080360590965321</v>
+        <v>1.071965784416746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075043614630836</v>
+        <v>1.05501443246139</v>
       </c>
       <c r="D4">
-        <v>1.077788782794776</v>
+        <v>1.066633100146166</v>
       </c>
       <c r="E4">
-        <v>1.075845869750061</v>
+        <v>1.055100573712171</v>
       </c>
       <c r="F4">
-        <v>1.088011310223659</v>
+        <v>1.070951031859183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058740790226224</v>
+        <v>1.06812343758359</v>
       </c>
       <c r="J4">
-        <v>1.079395072605341</v>
+        <v>1.073108383573528</v>
       </c>
       <c r="K4">
-        <v>1.080171467164715</v>
+        <v>1.075988715937922</v>
       </c>
       <c r="L4">
-        <v>1.078233075864264</v>
+        <v>1.064576533067049</v>
       </c>
       <c r="M4">
-        <v>1.090370488672984</v>
+        <v>1.080262402143686</v>
       </c>
       <c r="N4">
-        <v>1.080927937416786</v>
+        <v>1.074632320565454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075375219021572</v>
+        <v>1.056571194031527</v>
       </c>
       <c r="D5">
-        <v>1.078057497332646</v>
+        <v>1.067871985568816</v>
       </c>
       <c r="E5">
-        <v>1.076141218618232</v>
+        <v>1.056395145160526</v>
       </c>
       <c r="F5">
-        <v>1.088313210547838</v>
+        <v>1.072298723835317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058847212467398</v>
+        <v>1.068702419703746</v>
       </c>
       <c r="J5">
-        <v>1.079633067400878</v>
+        <v>1.074211797579568</v>
       </c>
       <c r="K5">
-        <v>1.080390001082363</v>
+        <v>1.077009063574414</v>
       </c>
       <c r="L5">
-        <v>1.078478082733782</v>
+        <v>1.065648687742932</v>
       </c>
       <c r="M5">
-        <v>1.090622657349216</v>
+        <v>1.081391689694676</v>
       </c>
       <c r="N5">
-        <v>1.08116627019223</v>
+        <v>1.075737301545946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075430894413834</v>
+        <v>1.056831369245671</v>
       </c>
       <c r="D6">
-        <v>1.078102613574284</v>
+        <v>1.06807907479528</v>
       </c>
       <c r="E6">
-        <v>1.076190816628812</v>
+        <v>1.056611643487166</v>
       </c>
       <c r="F6">
-        <v>1.088363905246319</v>
+        <v>1.072524060214987</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058865063479225</v>
+        <v>1.068799049531847</v>
       </c>
       <c r="J6">
-        <v>1.079673017279554</v>
+        <v>1.074396145482361</v>
       </c>
       <c r="K6">
-        <v>1.080426683081174</v>
+        <v>1.077179531153281</v>
       </c>
       <c r="L6">
-        <v>1.078519219659813</v>
+        <v>1.065827919052969</v>
       </c>
       <c r="M6">
-        <v>1.090664993479383</v>
+        <v>1.081580431760103</v>
       </c>
       <c r="N6">
-        <v>1.081206276804317</v>
+        <v>1.075921911243906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075048045709847</v>
+        <v>1.05503531576534</v>
       </c>
       <c r="D7">
-        <v>1.077792373513522</v>
+        <v>1.066649716589182</v>
       </c>
       <c r="E7">
-        <v>1.07584981570472</v>
+        <v>1.055117930256094</v>
       </c>
       <c r="F7">
-        <v>1.088015343942501</v>
+        <v>1.070969103673086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058742213435124</v>
+        <v>1.068131213308032</v>
       </c>
       <c r="J7">
-        <v>1.079398253407297</v>
+        <v>1.073123189496924</v>
       </c>
       <c r="K7">
-        <v>1.080174387950289</v>
+        <v>1.076002407406045</v>
       </c>
       <c r="L7">
-        <v>1.078236349712323</v>
+        <v>1.064590912405115</v>
       </c>
       <c r="M7">
-        <v>1.090373858438352</v>
+        <v>1.080277550429782</v>
       </c>
       <c r="N7">
-        <v>1.080931122735846</v>
+        <v>1.07464714751496</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073447435604095</v>
+        <v>1.047346229076503</v>
       </c>
       <c r="D8">
-        <v>1.076495310743158</v>
+        <v>1.060536736641674</v>
       </c>
       <c r="E8">
-        <v>1.074425589782329</v>
+        <v>1.048744676550808</v>
       </c>
       <c r="F8">
-        <v>1.0865590334032</v>
+        <v>1.064327721666384</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058226148537247</v>
+        <v>1.065252815519231</v>
       </c>
       <c r="J8">
-        <v>1.078248260208713</v>
+        <v>1.067664814827043</v>
       </c>
       <c r="K8">
-        <v>1.079118266555583</v>
+        <v>1.070954689410931</v>
       </c>
       <c r="L8">
-        <v>1.077053879951826</v>
+        <v>1.059302498517011</v>
       </c>
       <c r="M8">
-        <v>1.08915636383729</v>
+        <v>1.074701522287703</v>
       </c>
       <c r="N8">
-        <v>1.079779496415014</v>
+        <v>1.069181021326963</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.070625469767532</v>
+        <v>1.033043396367313</v>
       </c>
       <c r="D9">
-        <v>1.074208508756972</v>
+        <v>1.049194504446623</v>
       </c>
       <c r="E9">
-        <v>1.071920048001175</v>
+        <v>1.036978405685665</v>
       </c>
       <c r="F9">
-        <v>1.083995117743192</v>
+        <v>1.052038951602581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057307054468826</v>
+        <v>1.059827159980469</v>
       </c>
       <c r="J9">
-        <v>1.076216015406083</v>
+        <v>1.057480940068076</v>
       </c>
       <c r="K9">
-        <v>1.077251284145195</v>
+        <v>1.061536852278207</v>
       </c>
       <c r="L9">
-        <v>1.074969736525737</v>
+        <v>1.049498728516862</v>
       </c>
       <c r="M9">
-        <v>1.087008687670265</v>
+        <v>1.064340609716475</v>
       </c>
       <c r="N9">
-        <v>1.077744365591662</v>
+        <v>1.058982684297732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068743054100053</v>
+        <v>1.022930132563535</v>
       </c>
       <c r="D10">
-        <v>1.072683116125223</v>
+        <v>1.041199121114778</v>
       </c>
       <c r="E10">
-        <v>1.070252431141156</v>
+        <v>1.028725526538001</v>
       </c>
       <c r="F10">
-        <v>1.08228733674406</v>
+        <v>1.043399593284803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056687761691079</v>
+        <v>1.055945406221169</v>
       </c>
       <c r="J10">
-        <v>1.074857219799007</v>
+        <v>1.050262621454909</v>
       </c>
       <c r="K10">
-        <v>1.07600257424424</v>
+        <v>1.054862329243815</v>
       </c>
       <c r="L10">
-        <v>1.073579953793238</v>
+        <v>1.042594804459512</v>
       </c>
       <c r="M10">
-        <v>1.085575318288789</v>
+        <v>1.057027104934129</v>
       </c>
       <c r="N10">
-        <v>1.076383640338968</v>
+        <v>1.051754114844181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067927660941552</v>
+        <v>1.018396042610169</v>
       </c>
       <c r="D11">
-        <v>1.072022390287662</v>
+        <v>1.037621568361943</v>
       </c>
       <c r="E11">
-        <v>1.06953097799046</v>
+        <v>1.025042967979037</v>
       </c>
       <c r="F11">
-        <v>1.081548193052232</v>
+        <v>1.039539493805613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056418037881187</v>
+        <v>1.054195075297638</v>
       </c>
       <c r="J11">
-        <v>1.074267891720237</v>
+        <v>1.047023056036255</v>
       </c>
       <c r="K11">
-        <v>1.075460896176905</v>
+        <v>1.051867239882555</v>
       </c>
       <c r="L11">
-        <v>1.072978071010695</v>
+        <v>1.039507574676417</v>
       </c>
       <c r="M11">
-        <v>1.084954267343709</v>
+        <v>1.053752384387914</v>
       </c>
       <c r="N11">
-        <v>1.075793475346729</v>
+        <v>1.04850994887105</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067624741143218</v>
+        <v>1.016686907917801</v>
       </c>
       <c r="D12">
-        <v>1.071776933119697</v>
+        <v>1.036274169968761</v>
       </c>
       <c r="E12">
-        <v>1.06926309296134</v>
+        <v>1.023657592402888</v>
       </c>
       <c r="F12">
-        <v>1.081273691757606</v>
+        <v>1.038086530911304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056317614559313</v>
+        <v>1.053533847794624</v>
       </c>
       <c r="J12">
-        <v>1.074048843411197</v>
+        <v>1.045801461167224</v>
       </c>
       <c r="K12">
-        <v>1.07525954477267</v>
+        <v>1.050737917641402</v>
       </c>
       <c r="L12">
-        <v>1.072754489520604</v>
+        <v>1.038345164704137</v>
       </c>
       <c r="M12">
-        <v>1.084723521420071</v>
+        <v>1.052518704843282</v>
       </c>
       <c r="N12">
-        <v>1.075574115963966</v>
+        <v>1.047286619197185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067689720606482</v>
+        <v>1.017054681999386</v>
       </c>
       <c r="D13">
-        <v>1.071829586078038</v>
+        <v>1.036564050489903</v>
       </c>
       <c r="E13">
-        <v>1.069320550931911</v>
+        <v>1.023955571800554</v>
       </c>
       <c r="F13">
-        <v>1.081332570989633</v>
+        <v>1.038399084143918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056339166387245</v>
+        <v>1.053676195407265</v>
       </c>
       <c r="J13">
-        <v>1.074095836627589</v>
+        <v>1.046064344099433</v>
       </c>
       <c r="K13">
-        <v>1.075302742048951</v>
+        <v>1.050980939679374</v>
       </c>
       <c r="L13">
-        <v>1.072802449219293</v>
+        <v>1.038595231715818</v>
       </c>
       <c r="M13">
-        <v>1.084773019932531</v>
+        <v>1.052784134833859</v>
       </c>
       <c r="N13">
-        <v>1.075621175916115</v>
+        <v>1.047549875453311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067902622457253</v>
+        <v>1.018255284749782</v>
       </c>
       <c r="D14">
-        <v>1.072002101424535</v>
+        <v>1.037510577349279</v>
       </c>
       <c r="E14">
-        <v>1.069508832600973</v>
+        <v>1.024928816495696</v>
       </c>
       <c r="F14">
-        <v>1.08152550168396</v>
+        <v>1.039419789676112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056409741673748</v>
+        <v>1.054140647861609</v>
       </c>
       <c r="J14">
-        <v>1.074249788096817</v>
+        <v>1.046922458484462</v>
       </c>
       <c r="K14">
-        <v>1.07544425543332</v>
+        <v>1.051774239089482</v>
       </c>
       <c r="L14">
-        <v>1.072959590013997</v>
+        <v>1.039411815286058</v>
       </c>
       <c r="M14">
-        <v>1.084935195042291</v>
+        <v>1.053650767663346</v>
       </c>
       <c r="N14">
-        <v>1.075775346014088</v>
+        <v>1.048409208459194</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068033792090373</v>
+        <v>1.018991653525774</v>
       </c>
       <c r="D15">
-        <v>1.072108389264838</v>
+        <v>1.038091270344811</v>
       </c>
       <c r="E15">
-        <v>1.069624851689956</v>
+        <v>1.025526108925639</v>
       </c>
       <c r="F15">
-        <v>1.081644379192221</v>
+        <v>1.040046103421145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056453194160774</v>
+        <v>1.054425324622339</v>
       </c>
       <c r="J15">
-        <v>1.074344623343001</v>
+        <v>1.047448713088773</v>
       </c>
       <c r="K15">
-        <v>1.075531426850166</v>
+        <v>1.052260756424592</v>
       </c>
       <c r="L15">
-        <v>1.073056407577412</v>
+        <v>1.039912831287973</v>
       </c>
       <c r="M15">
-        <v>1.085035108506681</v>
+        <v>1.054182401770085</v>
       </c>
       <c r="N15">
-        <v>1.075870315937199</v>
+        <v>1.048936210405406</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068797162661499</v>
+        <v>1.023227639451624</v>
       </c>
       <c r="D16">
-        <v>1.072726961585995</v>
+        <v>1.041434019482049</v>
       </c>
       <c r="E16">
-        <v>1.070300324945467</v>
+        <v>1.028967534795385</v>
       </c>
       <c r="F16">
-        <v>1.082336398285353</v>
+        <v>1.043653160515155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056705629326058</v>
+        <v>1.056060052688844</v>
       </c>
       <c r="J16">
-        <v>1.074896311212776</v>
+        <v>1.05047512334804</v>
       </c>
       <c r="K16">
-        <v>1.076038502929201</v>
+        <v>1.055058805006566</v>
       </c>
       <c r="L16">
-        <v>1.073619896649158</v>
+        <v>1.042797551493834</v>
       </c>
       <c r="M16">
-        <v>1.085616527040987</v>
+        <v>1.057242072857709</v>
       </c>
       <c r="N16">
-        <v>1.076422787267029</v>
+        <v>1.051966918514375</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06927592439236</v>
+        <v>1.025842126294835</v>
       </c>
       <c r="D17">
-        <v>1.073114915846272</v>
+        <v>1.043499112910066</v>
       </c>
       <c r="E17">
-        <v>1.070724201205514</v>
+        <v>1.031096297682275</v>
       </c>
       <c r="F17">
-        <v>1.082770573024155</v>
+        <v>1.045883016814412</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056863555546274</v>
+        <v>1.057066435857835</v>
       </c>
       <c r="J17">
-        <v>1.07524211233695</v>
+        <v>1.052342213440097</v>
       </c>
       <c r="K17">
-        <v>1.07635631565766</v>
+        <v>1.056785136032614</v>
       </c>
       <c r="L17">
-        <v>1.073973331773677</v>
+        <v>1.044580212745843</v>
       </c>
       <c r="M17">
-        <v>1.085981129743032</v>
+        <v>1.05913169142886</v>
       </c>
       <c r="N17">
-        <v>1.076769079468463</v>
+        <v>1.053836660088521</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069555149719893</v>
+        <v>1.027352281015631</v>
       </c>
       <c r="D18">
-        <v>1.073341181771594</v>
+        <v>1.044692588427746</v>
       </c>
       <c r="E18">
-        <v>1.07097150246908</v>
+        <v>1.032327533044598</v>
       </c>
       <c r="F18">
-        <v>1.083023852364814</v>
+        <v>1.047172242744981</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056955520189782</v>
+        <v>1.057646781618918</v>
       </c>
       <c r="J18">
-        <v>1.075443719685732</v>
+        <v>1.053420340678912</v>
       </c>
       <c r="K18">
-        <v>1.076541596112096</v>
+        <v>1.057782022156884</v>
       </c>
       <c r="L18">
-        <v>1.074179475128469</v>
+        <v>1.045610645037261</v>
       </c>
       <c r="M18">
-        <v>1.086193758522811</v>
+        <v>1.060223539329576</v>
       </c>
       <c r="N18">
-        <v>1.076970973122804</v>
+        <v>1.054916318391677</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069650353608021</v>
+        <v>1.027864737816228</v>
       </c>
       <c r="D19">
-        <v>1.073418329033669</v>
+        <v>1.045097691225485</v>
       </c>
       <c r="E19">
-        <v>1.071055836247937</v>
+        <v>1.032745615114181</v>
       </c>
       <c r="F19">
-        <v>1.083110219627609</v>
+        <v>1.047609935777168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056986852154751</v>
+        <v>1.057843553111021</v>
       </c>
       <c r="J19">
-        <v>1.075512446914568</v>
+        <v>1.05378613610543</v>
       </c>
       <c r="K19">
-        <v>1.076604755989862</v>
+        <v>1.058120259386771</v>
       </c>
       <c r="L19">
-        <v>1.074249763117498</v>
+        <v>1.04596043601458</v>
       </c>
       <c r="M19">
-        <v>1.086266253058074</v>
+        <v>1.060594109765779</v>
       </c>
       <c r="N19">
-        <v>1.077039797952189</v>
+        <v>1.055282633289659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06922456073279</v>
+        <v>1.02556316235481</v>
       </c>
       <c r="D20">
-        <v>1.073073294229903</v>
+        <v>1.043278699976968</v>
       </c>
       <c r="E20">
-        <v>1.070678716948481</v>
+        <v>1.030868988878458</v>
       </c>
       <c r="F20">
-        <v>1.082723986823975</v>
+        <v>1.045644963300226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056846627186123</v>
+        <v>1.056959153795082</v>
       </c>
       <c r="J20">
-        <v>1.075205020736921</v>
+        <v>1.052143029294738</v>
       </c>
       <c r="K20">
-        <v>1.076322227125379</v>
+        <v>1.056600964158614</v>
       </c>
       <c r="L20">
-        <v>1.073935412505476</v>
+        <v>1.044389925444415</v>
       </c>
       <c r="M20">
-        <v>1.085942015242211</v>
+        <v>1.058930029749309</v>
       </c>
       <c r="N20">
-        <v>1.076731935194107</v>
+        <v>1.053637193078828</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067839929469147</v>
+        <v>1.017902440868885</v>
       </c>
       <c r="D21">
-        <v>1.07195130090626</v>
+        <v>1.037232370517144</v>
       </c>
       <c r="E21">
-        <v>1.069453385731502</v>
+        <v>1.024642713139244</v>
       </c>
       <c r="F21">
-        <v>1.081468687042544</v>
+        <v>1.039119756512903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05638896552762</v>
+        <v>1.054004189347699</v>
       </c>
       <c r="J21">
-        <v>1.074204457256556</v>
+        <v>1.046670279475725</v>
       </c>
       <c r="K21">
-        <v>1.075402587364163</v>
+        <v>1.051541105143262</v>
       </c>
       <c r="L21">
-        <v>1.07291331639844</v>
+        <v>1.039171792847077</v>
       </c>
       <c r="M21">
-        <v>1.084887440177337</v>
+        <v>1.053396052768596</v>
       </c>
       <c r="N21">
-        <v>1.075729950798834</v>
+        <v>1.04815667132734</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.06696908686871</v>
+        <v>1.012940405112994</v>
       </c>
       <c r="D22">
-        <v>1.071245660957096</v>
+        <v>1.033322891447308</v>
       </c>
       <c r="E22">
-        <v>1.068683519436334</v>
+        <v>1.020626065253859</v>
       </c>
       <c r="F22">
-        <v>1.080679716617019</v>
+        <v>1.034905603421213</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056099850386753</v>
+        <v>1.052081841518477</v>
       </c>
       <c r="J22">
-        <v>1.073574520123231</v>
+        <v>1.043122954157983</v>
       </c>
       <c r="K22">
-        <v>1.074823516241888</v>
+        <v>1.048261909710247</v>
       </c>
       <c r="L22">
-        <v>1.072270594388104</v>
+        <v>1.035799698290949</v>
       </c>
       <c r="M22">
-        <v>1.084224039640109</v>
+        <v>1.049815900774267</v>
       </c>
       <c r="N22">
-        <v>1.075099119082524</v>
+        <v>1.044604308400762</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067430763330135</v>
+        <v>1.015585266498971</v>
       </c>
       <c r="D23">
-        <v>1.071619753170526</v>
+        <v>1.035406033462589</v>
       </c>
       <c r="E23">
-        <v>1.069091588426084</v>
+        <v>1.022765434533899</v>
       </c>
       <c r="F23">
-        <v>1.08109793796082</v>
+        <v>1.037150619248818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056253245396104</v>
+        <v>1.053107250548093</v>
       </c>
       <c r="J23">
-        <v>1.073908542072699</v>
+        <v>1.045013956091275</v>
       </c>
       <c r="K23">
-        <v>1.0751305743956</v>
+        <v>1.050009922851894</v>
       </c>
       <c r="L23">
-        <v>1.072611322232182</v>
+        <v>1.037596311206255</v>
       </c>
       <c r="M23">
-        <v>1.08457575406658</v>
+        <v>1.051723744332201</v>
       </c>
       <c r="N23">
-        <v>1.075433615381474</v>
+        <v>1.046497995773701</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069247769847101</v>
+        <v>1.025689259859658</v>
       </c>
       <c r="D24">
-        <v>1.073092101312503</v>
+        <v>1.043378329180885</v>
       </c>
       <c r="E24">
-        <v>1.070699269136819</v>
+        <v>1.030971732109704</v>
       </c>
       <c r="F24">
-        <v>1.082745037022114</v>
+        <v>1.045752564610038</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056854276850175</v>
+        <v>1.057007650477449</v>
       </c>
       <c r="J24">
-        <v>1.075221781120583</v>
+        <v>1.052233065681348</v>
       </c>
       <c r="K24">
-        <v>1.076337630557369</v>
+        <v>1.056684214492567</v>
       </c>
       <c r="L24">
-        <v>1.073952546619672</v>
+        <v>1.044475936949796</v>
       </c>
       <c r="M24">
-        <v>1.085959689518421</v>
+        <v>1.059021183838839</v>
       </c>
       <c r="N24">
-        <v>1.076748719379436</v>
+        <v>1.053727357327435</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.071355202606751</v>
+        <v>1.036837308994882</v>
       </c>
       <c r="D25">
-        <v>1.074799849924654</v>
+        <v>1.052199273102157</v>
       </c>
       <c r="E25">
-        <v>1.072567304701992</v>
+        <v>1.040088514388161</v>
       </c>
       <c r="F25">
-        <v>1.084657684520156</v>
+        <v>1.055290505900453</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057545817180882</v>
+        <v>1.061274356965164</v>
       </c>
       <c r="J25">
-        <v>1.07674209402252</v>
+        <v>1.060185513335344</v>
       </c>
       <c r="K25">
-        <v>1.077734655134437</v>
+        <v>1.064037913030885</v>
       </c>
       <c r="L25">
-        <v>1.075508597664264</v>
+        <v>1.052094823893483</v>
       </c>
       <c r="M25">
-        <v>1.08756418975865</v>
+        <v>1.067087124330236</v>
       </c>
       <c r="N25">
-        <v>1.078271191300076</v>
+        <v>1.061691098369258</v>
       </c>
     </row>
   </sheetData>
